--- a/data/tr_data_hub_3-30-22.xlsx
+++ b/data/tr_data_hub_3-30-22.xlsx
@@ -1,43 +1,287 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>points-per-game</t>
+  </si>
+  <si>
+    <t>average-scoring-margin</t>
+  </si>
+  <si>
+    <t>field-goals-made-per-game</t>
+  </si>
+  <si>
+    <t>field-goals-attempted-per-game</t>
+  </si>
+  <si>
+    <t>offensive-efficiency</t>
+  </si>
+  <si>
+    <t>defensive-efficiency</t>
+  </si>
+  <si>
+    <t>effective-field-goal-pct</t>
+  </si>
+  <si>
+    <t>true-shooting-percentage</t>
+  </si>
+  <si>
+    <t>three-point-pct</t>
+  </si>
+  <si>
+    <t>two-point-pct</t>
+  </si>
+  <si>
+    <t>free-throw-pct</t>
+  </si>
+  <si>
+    <t>three-pointers-made-per-game</t>
+  </si>
+  <si>
+    <t>three-pointers-attempted-per-game</t>
+  </si>
+  <si>
+    <t>offensive-rebounds-per-game</t>
+  </si>
+  <si>
+    <t>defensive-rebounds-per-game</t>
+  </si>
+  <si>
+    <t>total-rebounds-per-game</t>
+  </si>
+  <si>
+    <t>offensive-rebounding-pct</t>
+  </si>
+  <si>
+    <t>defensive-rebounding-pct</t>
+  </si>
+  <si>
+    <t>total-rebounding-percentage</t>
+  </si>
+  <si>
+    <t>blocks-per-game</t>
+  </si>
+  <si>
+    <t>steals-per-game</t>
+  </si>
+  <si>
+    <t>assists-per-game</t>
+  </si>
+  <si>
+    <t>turnovers-per-game</t>
+  </si>
+  <si>
+    <t>assist--per--turnover-ratio</t>
+  </si>
+  <si>
+    <t>win-pct-all-games</t>
+  </si>
+  <si>
+    <t>win-pct-close-games</t>
+  </si>
+  <si>
+    <t>possessions-per-game</t>
+  </si>
+  <si>
+    <t>personal-fouls-per-game</t>
+  </si>
+  <si>
+    <t>opponent-points-per-game</t>
+  </si>
+  <si>
+    <t>opponent-average-scoring-margin</t>
+  </si>
+  <si>
+    <t>opponent-shooting-pct</t>
+  </si>
+  <si>
+    <t>opponent-effective-field-goal-pct</t>
+  </si>
+  <si>
+    <t>opponent-three-point-pct</t>
+  </si>
+  <si>
+    <t>opponent-two-point-pct</t>
+  </si>
+  <si>
+    <t>opponent-free-throw-pct</t>
+  </si>
+  <si>
+    <t>opponent-true-shooting-percentage</t>
+  </si>
+  <si>
+    <t>opponent-assists-per-game</t>
+  </si>
+  <si>
+    <t>opponent-turnovers-per-game</t>
+  </si>
+  <si>
+    <t>opponent-assist--per--turnover-ratio</t>
+  </si>
+  <si>
+    <t>effective-possession-ratio</t>
+  </si>
+  <si>
+    <t>opponent-effective-possession-ratio</t>
+  </si>
+  <si>
+    <t>opponent-offensive-rebounds-per-game</t>
+  </si>
+  <si>
+    <t>opponent-defensive-rebounds-per-game</t>
+  </si>
+  <si>
+    <t>opponent-total-rebounds-per-game</t>
+  </si>
+  <si>
+    <t>opponent-offensive-rebounding-pct</t>
+  </si>
+  <si>
+    <t>opponent-defensive-rebounding-pct</t>
+  </si>
+  <si>
+    <t>opponent-blocks-per-game</t>
+  </si>
+  <si>
+    <t>opponent-steals-per-game</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>LA Lakers</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Golden State</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Okla City</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +290,68 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,10 +360,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,69 +401,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,54 +489,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +545,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +554,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +563,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +571,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,7 +603,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +616,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,4797 +639,4687 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>points-per-game</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>average-scoring-margin</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>field-goals-made-per-game</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>field-goals-attempted-per-game</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>offensive-efficiency</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>defensive-efficiency</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>effective-field-goal-pct</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>true-shooting-percentage</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>three-point-pct</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>two-point-pct</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>free-throw-pct</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>three-pointers-made-per-game</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>three-pointers-attempted-per-game</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>offensive-rebounds-per-game</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>defensive-rebounds-per-game</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>total-rebounds-per-game</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>offensive-rebounding-pct</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>defensive-rebounding-pct</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>total-rebounding-percentage</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>blocks-per-game</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>steals-per-game</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>assists-per-game</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>turnovers-per-game</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>assist--per--turnover-ratio</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>win-pct-all-games</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>win-pct-close-games</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>possessions-per-game</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>personal-fouls-per-game</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-points-per-game</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-average-scoring-margin</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-shooting-pct</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-effective-field-goal-pct</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-three-point-pct</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-two-point-pct</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-free-throw-pct</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-true-shooting-percentage</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-assists-per-game</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-turnovers-per-game</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-assist--per--turnover-ratio</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>effective-possession-ratio</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-effective-possession-ratio</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-offensive-rebounds-per-game</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-defensive-rebounds-per-game</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-total-rebounds-per-game</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-offensive-rebounding-pct</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-defensive-rebounding-pct</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-blocks-per-game</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>opponent-steals-per-game</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Memphis</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4">
         <v>115.4</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4">
         <v>6.3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4">
         <v>43.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="4">
         <v>94.3</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="4">
         <v>1.109</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="4">
         <v>1.048</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="4">
         <v>52.2</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="4">
         <v>109.6</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="4">
         <v>34.9</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="4">
         <v>52.1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="4">
         <v>73.3</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="4">
         <v>11.4</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="4">
         <v>32.6</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="4">
         <v>14.2</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="4">
         <v>35.4</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="4">
         <v>58.8</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="4">
         <v>30.2</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="4">
         <v>77.8</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="4">
         <v>53.1</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="4">
         <v>6.6</v>
       </c>
-      <c r="V2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="V2" s="4">
+        <v>9.8</v>
+      </c>
+      <c r="W2" s="4">
         <v>25.7</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="4">
         <v>13.2</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="4">
         <v>1.947</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="4">
         <v>0.697</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="4">
         <v>0.571</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="4">
         <v>104.1</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="4">
         <v>19.7</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="4">
         <v>109.1</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="4">
         <v>-6.3</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="4">
         <v>45.1</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="4">
         <v>51.9</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="4">
         <v>34.9</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="4">
         <v>51.6</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="4">
         <v>77.3</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="5">
         <v>110</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="4">
         <v>24.8</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="4">
         <v>14.9</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="4">
         <v>1.665</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="4">
         <v>1.01</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="4">
         <v>0.954</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="4">
         <v>10.1</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="4">
         <v>32.8</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="4">
         <v>51.9</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="4">
         <v>22.2</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="4">
         <v>69.8</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="4">
         <v>6.3</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="4">
         <v>7.1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Minnesota</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4">
         <v>115.4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4">
         <v>3.2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4">
         <v>41.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="5">
         <v>91</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4">
         <v>1.103</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4">
         <v>1.073</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="4">
         <v>53.7</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="4">
         <v>113.3</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="4">
         <v>35.6</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="4">
         <v>53.9</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="4">
         <v>77.7</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="4">
         <v>14.7</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="4">
         <v>41.4</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="4">
         <v>11.3</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="4">
         <v>33.3</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="4">
         <v>52.7</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="4">
         <v>24.5</v>
       </c>
-      <c r="S3" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="S3" s="4">
+        <v>75.1</v>
+      </c>
+      <c r="T3" s="4">
         <v>48.9</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="4">
         <v>5.6</v>
       </c>
-      <c r="V3" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="V3" s="4">
+        <v>8.7</v>
+      </c>
+      <c r="W3" s="4">
         <v>25.5</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" s="4">
         <v>14.3</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="4">
         <v>1.783</v>
       </c>
-      <c r="Z3" t="n">
-        <v>0.5659999999999999</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="Z3" s="4">
+        <v>0.566</v>
+      </c>
+      <c r="AA3" s="4">
         <v>0.6</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="4">
         <v>104.6</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="4">
         <v>21.7</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="4">
         <v>112.2</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="4">
         <v>-3.2</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="4">
         <v>45.5</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="5">
         <v>53</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="4">
         <v>34.5</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="4">
         <v>53.9</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="4">
         <v>78.3</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="4">
         <v>113.1</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="4">
         <v>25.8</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="4">
         <v>16.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="4">
         <v>1.591</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="4">
         <v>0.971</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="4">
         <v>0.951</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="4">
         <v>11.1</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="4">
         <v>34.9</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="4">
         <v>54.9</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="4">
         <v>24.9</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="4">
         <v>75.5</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="4">
         <v>4.9</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="4">
         <v>7.3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Phoenix</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4">
         <v>115.3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4">
         <v>8.5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4">
         <v>43.7</v>
       </c>
-      <c r="E4" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4" s="4">
+        <v>89.6</v>
+      </c>
+      <c r="F4" s="4">
         <v>1.122</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="4">
         <v>1.04</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="4">
         <v>55.3</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="4">
         <v>116.3</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="5">
         <v>37</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="4">
         <v>55.3</v>
       </c>
-      <c r="L4" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="L4" s="4">
+        <v>79.9</v>
+      </c>
+      <c r="M4" s="4">
         <v>11.7</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="4">
         <v>31.6</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="4">
         <v>9.6</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="4">
         <v>35.6</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="4">
         <v>52.3</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="4">
         <v>22.3</v>
       </c>
-      <c r="S4" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="T4" t="n">
+      <c r="S4" s="4">
+        <v>77.1</v>
+      </c>
+      <c r="T4" s="5">
         <v>50</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="4">
         <v>4.5</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="4">
         <v>8.5</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" s="4">
         <v>27.4</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4" s="4">
         <v>12.9</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4" s="4">
         <v>2.129</v>
       </c>
-      <c r="Z4" t="n">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="Z4" s="4">
+        <v>0.813</v>
+      </c>
+      <c r="AA4" s="4">
         <v>0.79</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="4">
         <v>102.8</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="4">
         <v>19.7</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="4">
         <v>106.9</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="4">
         <v>-8.5</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="4">
         <v>44.3</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="4">
         <v>50.9</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="4">
         <v>33.8</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="5">
         <v>51</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="AK4" t="n">
+      <c r="AJ4" s="4">
+        <v>75.9</v>
+      </c>
+      <c r="AK4" s="4">
         <v>107.9</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="4">
         <v>22.6</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="4">
         <v>14.6</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="4">
         <v>1.548</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="4">
         <v>0.969</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="4">
         <v>0.96</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="4">
         <v>10.6</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="4">
         <v>33.6</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="4">
         <v>52.2</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="4">
         <v>22.9</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="4">
         <v>77.7</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="4">
         <v>3.9</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="4">
         <v>7.5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Milwaukee</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="4">
         <v>114.9</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4">
         <v>3.7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4">
         <v>41.5</v>
       </c>
-      <c r="E5" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5" s="4">
+        <v>89.1</v>
+      </c>
+      <c r="F5" s="4">
         <v>1.115</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="4">
         <v>1.08</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="4">
         <v>54.6</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="5">
         <v>115</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="4">
         <v>36.8</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="4">
         <v>54.1</v>
       </c>
-      <c r="L5" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5" s="4">
+        <v>77.4</v>
+      </c>
+      <c r="M5" s="4">
         <v>14.3</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="4">
         <v>38.7</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="4">
         <v>10.2</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="4">
         <v>36.6</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="4">
         <v>54.7</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="5">
         <v>23</v>
       </c>
-      <c r="S5" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="T5" t="n">
+      <c r="S5" s="4">
+        <v>78.4</v>
+      </c>
+      <c r="T5" s="5">
         <v>51</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="5">
         <v>4</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="4">
         <v>7.5</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="4">
         <v>23.6</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" s="4">
         <v>13.4</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" s="4">
         <v>1.761</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5" s="4">
         <v>0.627</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="4">
         <v>0.455</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="5">
         <v>103</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="4">
         <v>18.2</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="4">
         <v>111.3</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="4">
         <v>-3.7</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="4">
         <v>45.3</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="4">
         <v>53.2</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="4">
         <v>35.2</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="4">
         <v>53.5</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="4">
         <v>74.5</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="4">
         <v>111.1</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="4">
         <v>25.5</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="5">
         <v>13</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="4">
         <v>1.966</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="4">
         <v>0.969</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="4">
         <v>0.972</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="4">
         <v>10.1</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="4">
         <v>34.3</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="4">
         <v>52.6</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="4">
         <v>21.6</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="5">
         <v>77</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="4">
         <v>4.3</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="4">
         <v>7.3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Charlotte</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4">
         <v>114.7</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4">
         <v>0.3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4">
         <v>42.4</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4">
         <v>91.7</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="4">
         <v>1.101</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4">
         <v>1.098</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="4">
         <v>53.9</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="4">
         <v>112.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="4">
         <v>36.3</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="4">
         <v>53.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="4">
         <v>73.7</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="4">
         <v>13.9</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="4">
         <v>38.4</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="5">
         <v>11</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="4">
         <v>33.9</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="4">
         <v>52.6</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="4">
         <v>23.5</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="4">
         <v>74.7</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="4">
         <v>48.4</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="4">
         <v>4.9</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="4">
         <v>8.6</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" s="4">
         <v>27.6</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" s="4">
         <v>13.2</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="4">
         <v>2.098</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="4">
         <v>0.513</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="4">
         <v>0.421</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="4">
         <v>104.2</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="4">
         <v>19.9</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="4">
         <v>114.4</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="4">
         <v>-0.3</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="4">
         <v>46.3</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="5">
         <v>54</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="4">
         <v>35.7</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="4">
         <v>54.3</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="AK6" t="n">
+      <c r="AJ6" s="4">
+        <v>76.4</v>
+      </c>
+      <c r="AK6" s="4">
         <v>113.5</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="4">
         <v>26.3</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="5">
         <v>15</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="4">
         <v>1.753</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="4">
         <v>0.979</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="4">
         <v>0.966</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="4">
         <v>11.5</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="4">
         <v>35.9</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="5">
         <v>56</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="4">
         <v>25.3</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="4">
         <v>76.5</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="4">
         <v>4.7</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="4">
         <v>7.5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Utah</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4">
         <v>113.3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4">
         <v>5.5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4">
         <v>40.6</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="5">
         <v>86</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4">
         <v>1.129</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="4">
         <v>1.074</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="4">
         <v>55.7</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="4">
         <v>117.1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="4">
         <v>36.3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="4">
         <v>56.7</v>
       </c>
-      <c r="L7" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="L7" s="4">
+        <v>77.4</v>
+      </c>
+      <c r="M7" s="4">
         <v>14.7</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="4">
         <v>40.4</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="4">
         <v>10.6</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="4">
         <v>35.4</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="4">
         <v>54.2</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="5">
         <v>25</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" s="5">
         <v>78</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" s="4">
         <v>52.1</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7" s="4">
         <v>4.9</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7" s="4">
         <v>7.1</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7" s="4">
         <v>22.3</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7" s="4">
         <v>14.1</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7" s="4">
         <v>1.586</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7" s="4">
         <v>0.592</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="4">
         <v>0.429</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="4">
         <v>100.4</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="5">
         <v>19</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="4">
         <v>107.8</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="4">
         <v>-5.5</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="4">
         <v>45.4</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="4">
         <v>52.2</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="4">
         <v>34.9</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="4">
         <v>52.1</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="4">
         <v>75.7</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="4">
         <v>109.5</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="4">
         <v>23.3</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="4">
         <v>11.9</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="4">
         <v>1.947</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="4">
         <v>0.965</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="4">
         <v>0.98</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="5">
         <v>10</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="4">
         <v>31.7</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="4">
         <v>49.9</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="5">
         <v>22</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="5">
         <v>75</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="4">
         <v>4.3</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="4">
         <v>7.7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4">
         <v>113.2</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4">
         <v>0.8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4">
         <v>41.3</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="4">
         <v>88.2</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="4">
         <v>1.124</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="4">
         <v>1.116</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="5">
         <v>54</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="4">
         <v>114.7</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="4">
         <v>37.2</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="5">
         <v>53</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="4">
         <v>81.2</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="4">
         <v>12.7</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="4">
         <v>34.1</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="5">
         <v>10</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="4">
         <v>33.8</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="4">
         <v>51.4</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="5">
         <v>23</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" s="4">
         <v>76.8</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" s="4">
         <v>50.4</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8" s="4">
         <v>4.4</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8" s="4">
         <v>7.1</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8" s="4">
         <v>24.5</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8" s="5">
         <v>12</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8" s="4">
         <v>2.041</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8" s="4">
         <v>0.507</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="4">
         <v>0.5</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="4">
         <v>100.7</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="4">
         <v>18.6</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="4">
         <v>112.4</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="4">
         <v>-0.8</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="4">
         <v>47.2</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="4">
         <v>54.4</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="4">
         <v>36.5</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="4">
         <v>54.1</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="4">
         <v>79.7</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="4">
         <v>114.4</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="4">
         <v>25.7</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="4">
         <v>12.7</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="4">
         <v>2.021</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="4">
         <v>0.98</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8" s="4">
         <v>0.975</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8" s="4">
         <v>10.2</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8" s="4">
         <v>33.6</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8" s="4">
         <v>50.6</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8" s="4">
         <v>23.2</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8" s="5">
         <v>77</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8" s="4">
         <v>4.6</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8" s="4">
         <v>7.2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>San Antonio</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="5">
         <v>113</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4">
         <v>-0.3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4">
         <v>43.4</v>
       </c>
-      <c r="E9" t="n">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9" s="4">
+        <v>93.4</v>
+      </c>
+      <c r="F9" s="4">
         <v>1.087</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="4">
         <v>1.09</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="4">
         <v>52.5</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="4">
         <v>109.8</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="5">
         <v>35</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="4">
         <v>52.5</v>
       </c>
-      <c r="L9" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="L9" s="4">
+        <v>75.1</v>
+      </c>
+      <c r="M9" s="4">
         <v>11.2</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="4">
         <v>31.9</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="4">
         <v>11.4</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="4">
         <v>34.2</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="4">
         <v>53.6</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="4">
         <v>24.2</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="5">
         <v>75</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="4">
         <v>49.4</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="4">
         <v>5.1</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="4">
         <v>7.6</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="5">
         <v>28</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="4">
         <v>12.8</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="4">
         <v>2.191</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="4">
         <v>0.413</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" s="4">
         <v>0.391</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9" s="5">
         <v>104</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9" s="4">
         <v>18.1</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9" s="4">
         <v>113.3</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="4">
         <v>0.3</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="4">
         <v>46.8</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="4">
         <v>53.3</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9" s="4">
         <v>35.8</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9" s="5">
         <v>53</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AJ9" s="4">
+        <v>76.9</v>
+      </c>
+      <c r="AK9" s="5">
         <v>112</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9" s="4">
         <v>23.9</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9" s="4">
         <v>13.9</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9" s="4">
         <v>1.72</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9" s="4">
         <v>0.987</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9" s="4">
         <v>0.976</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9" s="4">
         <v>11.4</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9" s="4">
         <v>35.5</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9" s="4">
         <v>54.8</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9" s="5">
         <v>25</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9" s="4">
         <v>75.8</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9" s="4">
         <v>5.1</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9" s="4">
         <v>7.3</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Brooklyn</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4">
         <v>112.4</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4">
         <v>0.4</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4">
         <v>41.8</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="4">
         <v>88.2</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="4">
         <v>1.096</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="4">
         <v>1.092</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="4">
         <v>53.8</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="4">
         <v>114.1</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="4">
         <v>35.7</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="5">
         <v>54</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="4">
         <v>80.2</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="4">
         <v>11.3</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="4">
         <v>31.5</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="4">
         <v>10.3</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="4">
         <v>33.8</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" s="5">
         <v>52</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" s="4">
         <v>23.9</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" s="5">
         <v>75</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" s="4">
         <v>49.8</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10" s="4">
         <v>5.4</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10" s="4">
         <v>7.1</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10" s="4">
         <v>25.2</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10" s="5">
         <v>14</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10" s="4">
         <v>1.801</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10" s="4">
         <v>0.526</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10" s="4">
         <v>0.65</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10" s="4">
         <v>102.6</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10" s="4">
         <v>20.1</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10" s="4">
         <v>112.1</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10" s="4">
         <v>-0.4</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10" s="4">
         <v>45.3</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10" s="4">
         <v>52.2</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10" s="4">
         <v>34.7</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10" s="4">
         <v>52.4</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10" s="4">
         <v>79.7</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10" s="4">
         <v>111.2</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10" s="4">
         <v>24.1</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10" s="4">
         <v>13.4</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10" s="4">
         <v>1.792</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10" s="4">
         <v>0.964</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10" s="4">
         <v>0.979</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10" s="4">
         <v>11.3</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10" s="4">
         <v>32.9</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10" s="4">
         <v>52.5</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10" s="5">
         <v>25</v>
       </c>
-      <c r="AU10" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="AV10" t="n">
+      <c r="AU10" s="4">
+        <v>76.1</v>
+      </c>
+      <c r="AV10" s="5">
         <v>5</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10" s="4">
         <v>7.9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Denver</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4">
         <v>111.8</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="4">
         <v>2.5</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4">
         <v>41.3</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="4">
         <v>86.2</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="4">
         <v>1.108</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="4">
         <v>1.084</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="4">
         <v>55.3</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="4">
         <v>116.4</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="4">
         <v>35.4</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="4">
         <v>56.9</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="4">
         <v>79.2</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="4">
         <v>12.8</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="4">
         <v>36.1</v>
       </c>
-      <c r="O11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="O11" s="4">
+        <v>9.2</v>
+      </c>
+      <c r="P11" s="4">
         <v>34.9</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="4">
         <v>51.5</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="4">
         <v>21.9</v>
       </c>
-      <c r="S11" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="T11" t="n">
+      <c r="S11" s="4">
+        <v>78.4</v>
+      </c>
+      <c r="T11" s="4">
         <v>51.1</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="4">
         <v>3.7</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" s="4">
         <v>7.2</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" s="4">
         <v>27.6</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" s="4">
         <v>14.4</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11" s="4">
         <v>1.913</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11" s="4">
         <v>0.592</v>
       </c>
-      <c r="AA11" t="n">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AA11" s="4">
+        <v>0.684</v>
+      </c>
+      <c r="AB11" s="4">
         <v>100.9</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11" s="4">
         <v>19.8</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11" s="4">
         <v>109.4</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11" s="4">
         <v>-2.5</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11" s="4">
         <v>46.8</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11" s="4">
         <v>53.6</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11" s="4">
         <v>34.3</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11" s="5">
         <v>55</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11" s="4">
         <v>75.3</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11" s="4">
         <v>112.5</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11" s="4">
         <v>25.1</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11" s="4">
         <v>12.9</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11" s="4">
         <v>1.946</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11" s="4">
         <v>0.948</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11" s="4">
         <v>0.968</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11" s="4">
         <v>9.6</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11" s="4">
         <v>32.8</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11" s="4">
         <v>49.3</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11" s="4">
         <v>21.6</v>
       </c>
-      <c r="AU11" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="AV11" t="n">
+      <c r="AU11" s="4">
+        <v>78.1</v>
+      </c>
+      <c r="AV11" s="4">
         <v>4.8</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW11" s="4">
         <v>7.9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>LA Lakers</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="4">
         <v>111.5</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="4">
         <v>-2.9</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="4">
         <v>41.7</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="5">
         <v>89</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="4">
         <v>1.068</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="4">
         <v>1.096</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="4">
         <v>53.7</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="4">
         <v>112.1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="4">
         <v>34.9</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="4">
         <v>54.5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="4">
         <v>72.8</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="4">
         <v>12.2</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="4">
         <v>34.9</v>
       </c>
-      <c r="O12" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="O12" s="4">
+        <v>9.7</v>
+      </c>
+      <c r="P12" s="4">
         <v>34.4</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="4">
         <v>52.6</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="4">
         <v>21.3</v>
       </c>
-      <c r="S12" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="T12" t="n">
+      <c r="S12" s="4">
+        <v>75.4</v>
+      </c>
+      <c r="T12" s="4">
         <v>48.9</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="4">
         <v>5.3</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" s="4">
         <v>7.7</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="4">
         <v>24.1</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" s="4">
         <v>14.6</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="4">
         <v>1.658</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12" s="4">
         <v>0.413</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" s="4">
         <v>0.5</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12" s="4">
         <v>104.4</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12" s="4">
         <v>20.2</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12" s="4">
         <v>114.5</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12" s="4">
         <v>2.9</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12" s="4">
         <v>46.7</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" s="4">
         <v>53.6</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12" s="4">
         <v>35.2</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12" s="4">
         <v>54.2</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AJ12" s="4">
+        <v>74.4</v>
+      </c>
+      <c r="AK12" s="4">
         <v>112.7</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12" s="4">
         <v>25.9</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12" s="4">
         <v>14.1</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12" s="4">
         <v>1.832</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12" s="4">
         <v>0.953</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12" s="4">
         <v>0.972</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12" s="4">
         <v>11.2</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12" s="4">
         <v>35.7</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12" s="5">
         <v>55</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12" s="4">
         <v>24.6</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12" s="4">
         <v>78.7</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12" s="4">
         <v>4.1</v>
       </c>
-      <c r="AW12" t="n">
-        <v>8.300000000000001</v>
+      <c r="AW12" s="4">
+        <v>8.3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Chicago</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="4">
         <v>111.4</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="4">
         <v>0.5</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="4">
         <v>41.7</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="4">
         <v>86.8</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="4">
         <v>1.099</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="4">
         <v>1.094</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="4">
         <v>54.2</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="5">
         <v>115</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="5">
         <v>37</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="4">
         <v>53.6</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="4">
         <v>81.3</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="4">
         <v>10.7</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="4">
         <v>28.9</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="4">
         <v>8.5</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="4">
         <v>33.9</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="4">
         <v>49.3</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="5">
         <v>20</v>
       </c>
-      <c r="S13" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="T13" t="n">
+      <c r="S13" s="4">
+        <v>78.1</v>
+      </c>
+      <c r="T13" s="4">
         <v>49.3</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" s="4">
         <v>4.2</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" s="4">
         <v>7.1</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13" s="5">
         <v>24</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13" s="4">
         <v>12.8</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13" s="4">
         <v>1.878</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13" s="4">
         <v>0.579</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13" s="4">
         <v>0.55</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13" s="4">
         <v>101.4</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13" s="4">
         <v>18.8</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13" s="4">
         <v>110.9</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13" s="4">
         <v>-0.5</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13" s="5">
         <v>47</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13" s="4">
         <v>53.5</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13" s="4">
         <v>36.1</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13" s="4">
         <v>53.1</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13" s="4">
         <v>79.2</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13" s="4">
         <v>113.3</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13" s="4">
         <v>24.6</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13" s="4">
         <v>13.1</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13" s="4">
         <v>1.872</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13" s="4">
         <v>0.958</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13" s="4">
         <v>0.964</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13" s="4">
         <v>9.5</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13" s="4">
         <v>33.9</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13" s="4">
         <v>50.7</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13" s="4">
         <v>21.9</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13" s="5">
         <v>80</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13" s="5">
         <v>5</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AW13" s="4">
         <v>7.1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Golden State</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4">
         <v>110.8</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="4">
         <v>5.2</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="4">
         <v>40.4</v>
       </c>
-      <c r="E14" t="n">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14" s="4">
+        <v>86.6</v>
+      </c>
+      <c r="F14" s="4">
         <v>1.089</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="4">
         <v>1.038</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="4">
         <v>54.9</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="5">
         <v>115</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="5">
         <v>36</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="4">
         <v>55.8</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="4">
         <v>76.5</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="4">
         <v>14.3</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14" s="4">
         <v>39.7</v>
       </c>
-      <c r="O14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="O14" s="4">
+        <v>9.8</v>
+      </c>
+      <c r="P14" s="4">
         <v>35.6</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="4">
         <v>53.5</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="4">
         <v>22.9</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="4">
         <v>78.7</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="5">
         <v>51</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="4">
         <v>4.6</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="4">
         <v>8.9</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="4">
         <v>26.9</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="4">
         <v>14.8</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="4">
         <v>1.811</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="4">
         <v>0.632</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="4">
         <v>0.474</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="4">
         <v>101.8</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="4">
         <v>20.9</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="4">
         <v>105.7</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="4">
         <v>-5.2</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="5">
         <v>44</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="4">
         <v>51.1</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="4">
         <v>34.3</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="5">
         <v>51</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="4">
         <v>75.7</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="4">
         <v>108.6</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="4">
         <v>23.2</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="4">
         <v>14.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="4">
         <v>1.591</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="4">
         <v>0.951</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="4">
         <v>0.952</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="4">
         <v>9.6</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="4">
         <v>33.1</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="4">
         <v>51.5</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="4">
         <v>21.3</v>
       </c>
-      <c r="AU14" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="AV14" t="n">
+      <c r="AU14" s="4">
+        <v>77.1</v>
+      </c>
+      <c r="AV14" s="5">
         <v>4</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="4">
         <v>7.9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Boston</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="4">
         <v>110.8</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="4">
         <v>6.7</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4">
         <v>40.3</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="4">
         <v>87.3</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="4">
         <v>1.1</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="4">
         <v>1.033</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="4">
         <v>53.6</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="4">
         <v>113.9</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="4">
         <v>35.2</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="4">
         <v>54.2</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="4">
         <v>81.8</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="4">
         <v>12.9</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" s="4">
         <v>36.8</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="4">
         <v>10.6</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="4">
         <v>35.6</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="4">
         <v>53.1</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="4">
         <v>24.1</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="4">
         <v>77.2</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="4">
         <v>50.4</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="5">
         <v>6</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="4">
         <v>7.2</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" s="4">
         <v>24.3</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" s="4">
         <v>13.6</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="4">
         <v>1.789</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15" s="4">
         <v>0.618</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="4">
         <v>0.211</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="4">
         <v>100.7</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="4">
         <v>18.5</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="5">
         <v>104</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="4">
         <v>-6.7</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="4">
         <v>43.2</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="4">
         <v>49.9</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="4">
         <v>33.6</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="4">
         <v>49.5</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AJ15" s="4">
+        <v>78.4</v>
+      </c>
+      <c r="AK15" s="4">
         <v>106.3</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="4">
         <v>21.4</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="4">
         <v>13.8</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="4">
         <v>1.551</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="4">
         <v>0.97</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="4">
         <v>0.967</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="4">
         <v>10.5</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="4">
         <v>33.5</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="4">
         <v>52.2</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="4">
         <v>22.8</v>
       </c>
-      <c r="AU15" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="AV15" t="n">
+      <c r="AU15" s="4">
+        <v>75.9</v>
+      </c>
+      <c r="AV15" s="4">
         <v>4.6</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="4">
         <v>7.4</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Indiana</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="4">
         <v>110.7</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="4">
         <v>-3.1</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="4">
         <v>41.2</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="4">
         <v>89.3</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="4">
         <v>1.084</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="4">
         <v>1.115</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="4">
         <v>52.9</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="4">
         <v>111.4</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="4">
         <v>34.2</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="5">
         <v>54</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="4">
         <v>76.3</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="5">
         <v>12</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16" s="4">
         <v>35.2</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" s="4">
         <v>11.2</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16" s="4">
         <v>33.1</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="4">
         <v>53.4</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" s="4">
         <v>25.3</v>
       </c>
-      <c r="S16" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="S16" s="4">
+        <v>76.4</v>
+      </c>
+      <c r="T16" s="4">
         <v>51.5</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16" s="4">
         <v>5.6</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16" s="4">
         <v>6.9</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16" s="4">
         <v>25.1</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16" s="4">
         <v>14.5</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16" s="4">
         <v>1.732</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16" s="4">
         <v>0.329</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="4">
         <v>0.24</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="4">
         <v>102.1</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="4">
         <v>20.3</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="4">
         <v>113.9</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="4">
         <v>3.1</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="4">
         <v>47.8</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="4">
         <v>54.5</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="4">
         <v>36.7</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="4">
         <v>54.2</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="4">
         <v>79.3</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="4">
         <v>115.3</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="4">
         <v>24.5</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="5">
         <v>13</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="4">
         <v>1.889</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="4">
         <v>0.968</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="4">
         <v>0.973</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="4">
         <v>10.2</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="5">
         <v>33</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="4">
         <v>50.4</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="4">
         <v>23.6</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="4">
         <v>74.7</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="5">
         <v>5</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="4">
         <v>8.1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Sacramento</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="4">
         <v>110.4</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="4">
         <v>-5.4</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="4">
         <v>40.6</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="4">
         <v>88.5</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="4">
         <v>1.066</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="4">
         <v>1.118</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="4">
         <v>52.4</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="4">
         <v>111.1</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="4">
         <v>34.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="4">
         <v>52.9</v>
       </c>
-      <c r="L17" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" s="4">
+        <v>76.9</v>
+      </c>
+      <c r="M17" s="4">
         <v>11.6</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17" s="4">
         <v>33.6</v>
       </c>
-      <c r="O17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="O17" s="4">
+        <v>9.8</v>
+      </c>
+      <c r="P17" s="4">
         <v>33.3</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="4">
         <v>51.2</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" s="4">
         <v>21.7</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17" s="4">
         <v>76.2</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" s="4">
         <v>48.8</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17" s="4">
         <v>4.4</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17" s="4">
         <v>7.2</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17" s="4">
         <v>23.6</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17" s="4">
         <v>14.2</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17" s="4">
         <v>1.666</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z17" s="4">
         <v>0.355</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="4">
         <v>0.524</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="4">
         <v>103.5</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="5">
         <v>19</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="4">
         <v>115.8</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="4">
         <v>5.4</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="4">
         <v>48.1</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="4">
         <v>55.1</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="5">
         <v>37</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="4">
         <v>54.9</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="4">
         <v>77.8</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="4">
         <v>115.4</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="4">
         <v>25.2</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="4">
         <v>13.4</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="4">
         <v>1.881</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="4">
         <v>0.958</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="4">
         <v>0.971</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="4">
         <v>10.4</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="4">
         <v>35.3</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="4">
         <v>53.6</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="4">
         <v>23.8</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="4">
         <v>78.3</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="4">
         <v>4.8</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="4">
         <v>8.1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Miami</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="4">
         <v>109.3</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="4">
         <v>4.1</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="4">
         <v>39.4</v>
       </c>
-      <c r="E18" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18" s="4">
+        <v>85.1</v>
+      </c>
+      <c r="F18" s="4">
         <v>1.096</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="4">
         <v>1.054</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="4">
         <v>54.2</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="4">
         <v>114.9</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="4">
         <v>37.4</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="4">
         <v>52.8</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="4">
         <v>81.2</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="4">
         <v>13.3</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" s="4">
         <v>35.7</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" s="4">
         <v>10.1</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" s="4">
         <v>33.9</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="4">
         <v>51.3</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" s="4">
         <v>23.9</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18" s="5">
         <v>78</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" s="4">
         <v>50.7</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18" s="4">
         <v>3.3</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18" s="4">
         <v>7.4</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18" s="4">
         <v>25.5</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18" s="4">
         <v>14.6</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18" s="4">
         <v>1.747</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18" s="4">
         <v>0.632</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="4">
         <v>0.5</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="4">
         <v>99.8</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="4">
         <v>20.6</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="4">
         <v>105.2</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="4">
         <v>-4.1</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="4">
         <v>44.6</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="4">
         <v>52.3</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="4">
         <v>34.1</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="4">
         <v>53.3</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="AK18" t="n">
+      <c r="AJ18" s="4">
+        <v>77.6</v>
+      </c>
+      <c r="AK18" s="4">
         <v>111.3</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="4">
         <v>23.1</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="4">
         <v>15.1</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="4">
         <v>1.532</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="4">
         <v>0.955</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="4">
         <v>0.945</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="4">
         <v>9.6</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="4">
         <v>32.2</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="4">
         <v>49.8</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="5">
         <v>22</v>
       </c>
-      <c r="AU18" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="AV18" t="n">
+      <c r="AU18" s="4">
+        <v>76.1</v>
+      </c>
+      <c r="AV18" s="4">
         <v>4.2</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="4">
         <v>7.4</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Houston</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4">
         <v>109.2</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="4">
         <v>-8.5</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="4">
         <v>39.1</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="5">
         <v>86</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="4">
         <v>1.045</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="4">
         <v>1.127</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="4">
         <v>53.3</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="4">
         <v>111.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="4">
         <v>34.9</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="5">
         <v>54</v>
       </c>
-      <c r="L19" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" s="4">
+        <v>71.4</v>
+      </c>
+      <c r="M19" s="4">
         <v>13.4</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" s="4">
         <v>38.5</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" s="4">
         <v>9.4</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" s="4">
         <v>32.6</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" s="4">
         <v>51.7</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" s="4">
         <v>21.4</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19" s="4">
         <v>74.5</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19" s="4">
         <v>48.9</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19" s="4">
         <v>4.7</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19" s="4">
         <v>7.3</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19" s="4">
         <v>23.5</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19" s="4">
         <v>16.6</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19" s="4">
         <v>1.42</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19" s="4">
         <v>0.263</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="4">
         <v>0.467</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="4">
         <v>104.4</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="4">
         <v>20.4</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="4">
         <v>117.7</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="4">
         <v>8.5</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="4">
         <v>48.2</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="4">
         <v>55.3</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="5">
         <v>35</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="4">
         <v>57.1</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="AK19" t="n">
+      <c r="AJ19" s="4">
+        <v>77.9</v>
+      </c>
+      <c r="AK19" s="4">
         <v>116.4</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="4">
         <v>25.7</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="4">
         <v>14.1</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="4">
         <v>1.816</v>
       </c>
-      <c r="AO19" t="n">
-        <v>0.9320000000000001</v>
-      </c>
-      <c r="AP19" t="n">
+      <c r="AO19" s="4">
+        <v>0.932</v>
+      </c>
+      <c r="AP19" s="4">
         <v>0.972</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="4">
         <v>11.2</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="4">
         <v>34.6</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="5">
         <v>54</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="4">
         <v>25.5</v>
       </c>
-      <c r="AU19" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="AV19" t="n">
+      <c r="AU19" s="4">
+        <v>78.6</v>
+      </c>
+      <c r="AV19" s="4">
         <v>5.7</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="4">
         <v>9.6</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Toronto</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4">
         <v>109.1</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="5">
         <v>2</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="4">
         <v>40.6</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="4">
         <v>91.3</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="4">
         <v>1.09</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="4">
         <v>1.07</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="5">
         <v>51</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="4">
         <v>107.7</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="5">
         <v>35</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="4">
         <v>50.1</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="4">
         <v>75.5</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="4">
         <v>11.9</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20" s="5">
         <v>34</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" s="4">
         <v>13.5</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20" s="4">
         <v>31.9</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="4">
         <v>53.8</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20" s="4">
         <v>28.5</v>
       </c>
-      <c r="S20" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="S20" s="4">
+        <v>75.4</v>
+      </c>
+      <c r="T20" s="4">
         <v>50.8</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20" s="4">
         <v>4.7</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20" s="4">
         <v>8.9</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20" s="5">
         <v>22</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20" s="4">
         <v>12.4</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20" s="4">
         <v>1.766</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z20" s="4">
         <v>0.573</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="4">
         <v>0.52</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="4">
         <v>100.1</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="4">
         <v>19.8</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="4">
         <v>107.1</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="5">
         <v>-2</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="4">
         <v>46.2</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="4">
         <v>53.4</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="4">
         <v>35.1</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="4">
         <v>53.9</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="5">
         <v>79</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="4">
         <v>113.2</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="4">
         <v>25.1</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="4">
         <v>15.7</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="4">
         <v>1.596</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="4">
         <v>1.01</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP20" s="4">
         <v>0.947</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AQ20" s="4">
         <v>10.4</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AR20" s="4">
         <v>33.7</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="AS20" s="5">
         <v>52</v>
       </c>
-      <c r="AT20" t="n">
+      <c r="AT20" s="4">
         <v>24.6</v>
       </c>
-      <c r="AU20" t="n">
+      <c r="AU20" s="4">
         <v>71.5</v>
       </c>
-      <c r="AV20" t="n">
+      <c r="AV20" s="4">
         <v>5.1</v>
       </c>
-      <c r="AW20" t="n">
+      <c r="AW20" s="4">
         <v>6.7</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Philadelphia</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4">
         <v>108.9</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="4">
         <v>2.1</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="4">
         <v>39.1</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="4">
         <v>84.7</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="4">
         <v>1.092</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="4">
         <v>1.071</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="4">
         <v>52.8</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="4">
         <v>113.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="4">
         <v>35.9</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="4">
         <v>52.2</v>
       </c>
-      <c r="L21" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="L21" s="4">
+        <v>81.9</v>
+      </c>
+      <c r="M21" s="4">
         <v>11.4</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21" s="4">
         <v>31.6</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21" s="4">
         <v>8.5</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21" s="4">
         <v>33.8</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="4">
         <v>49.7</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="4">
         <v>19.9</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="4">
         <v>76.7</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="4">
         <v>48.8</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="4">
         <v>5.3</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="4">
         <v>7.5</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="4">
         <v>23.2</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="4">
         <v>12.3</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="4">
         <v>1.891</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21" s="4">
         <v>0.613</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21" s="4">
         <v>0.52</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21" s="4">
         <v>99.7</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21" s="4">
         <v>19.4</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21" s="4">
         <v>106.8</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="4">
         <v>-2.1</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="4">
         <v>45.6</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" s="4">
         <v>52.1</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21" s="4">
         <v>34.4</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21" s="4">
         <v>52.5</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21" s="5">
         <v>77</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK21" s="4">
         <v>110.3</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL21" s="4">
         <v>23.2</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM21" s="4">
         <v>13.1</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN21" s="4">
         <v>1.771</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO21" s="4">
         <v>0.962</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21" s="4">
         <v>0.971</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21" s="4">
         <v>10.3</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="AR21" s="4">
         <v>34.4</v>
       </c>
-      <c r="AS21" t="n">
+      <c r="AS21" s="4">
         <v>52.2</v>
       </c>
-      <c r="AT21" t="n">
+      <c r="AT21" s="4">
         <v>23.3</v>
       </c>
-      <c r="AU21" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="AV21" t="n">
+      <c r="AU21" s="4">
+        <v>80.1</v>
+      </c>
+      <c r="AV21" s="4">
         <v>4.6</v>
       </c>
-      <c r="AW21" t="n">
+      <c r="AW21" s="4">
         <v>6.4</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>New Orleans</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="4">
         <v>108.8</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="5">
         <v>-1</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="4">
         <v>40.1</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="5">
         <v>88</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="4">
         <v>1.079</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="4">
         <v>1.089</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="4">
         <v>51.7</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="4">
         <v>110.2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="4">
         <v>33.3</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="4">
         <v>52.7</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="4">
         <v>78.8</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="4">
         <v>10.7</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22" s="4">
         <v>32.3</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" s="4">
         <v>11.8</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22" s="4">
         <v>33.7</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" s="4">
         <v>53.3</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22" s="4">
         <v>26.5</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22" s="4">
         <v>78.3</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22" s="4">
         <v>51.7</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22" s="4">
         <v>4.1</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V22" s="4">
         <v>8.1</v>
       </c>
-      <c r="W22" t="n">
+      <c r="W22" s="5">
         <v>25</v>
       </c>
-      <c r="X22" t="n">
+      <c r="X22" s="4">
         <v>14.1</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y22" s="4">
         <v>1.774</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="Z22" s="4">
         <v>0.427</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AA22" s="4">
         <v>0.5</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AB22" s="4">
         <v>100.8</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AC22" s="4">
         <v>19.9</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AD22" s="4">
         <v>109.8</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AE22" s="5">
         <v>1</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AF22" s="4">
         <v>46.7</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG22" s="4">
         <v>54.1</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AH22" s="4">
         <v>35.9</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AI22" s="4">
         <v>54.3</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="AK22" t="n">
+      <c r="AJ22" s="4">
+        <v>78.4</v>
+      </c>
+      <c r="AK22" s="4">
         <v>114.3</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AL22" s="4">
         <v>24.3</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AM22" s="4">
         <v>13.9</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AN22" s="4">
         <v>1.749</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AO22" s="4">
         <v>0.977</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="AP22" s="4">
         <v>0.955</v>
       </c>
-      <c r="AQ22" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AQ22" s="4">
+        <v>9.3</v>
+      </c>
+      <c r="AR22" s="4">
         <v>32.7</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="AS22" s="4">
         <v>49.8</v>
       </c>
-      <c r="AT22" t="n">
+      <c r="AT22" s="4">
         <v>21.7</v>
       </c>
-      <c r="AU22" t="n">
+      <c r="AU22" s="4">
         <v>73.5</v>
       </c>
-      <c r="AV22" t="n">
+      <c r="AV22" s="4">
         <v>4.8</v>
       </c>
-      <c r="AW22" t="n">
+      <c r="AW22" s="4">
         <v>7.4</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Washington</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="4">
         <v>108.1</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="4">
         <v>-3.3</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="4">
         <v>40.2</v>
       </c>
-      <c r="E23" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E23" s="4">
+        <v>85.9</v>
+      </c>
+      <c r="F23" s="4">
         <v>1.073</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="4">
         <v>1.106</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="4">
         <v>52.9</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="4">
         <v>112.3</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="4">
         <v>33.9</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="4">
         <v>54.1</v>
       </c>
-      <c r="L23" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" s="4">
+        <v>78.6</v>
+      </c>
+      <c r="M23" s="4">
         <v>10.4</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23" s="4">
         <v>30.7</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23" s="5">
         <v>9</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23" s="4">
         <v>34.1</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23" s="4">
         <v>50.6</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23" s="4">
         <v>20.9</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23" s="4">
         <v>76.5</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23" s="4">
         <v>49.4</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23" s="5">
         <v>5</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V23" s="4">
         <v>6.4</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W23" s="4">
         <v>24.7</v>
       </c>
-      <c r="X23" t="n">
+      <c r="X23" s="4">
         <v>13.2</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Y23" s="4">
         <v>1.877</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="Z23" s="4">
         <v>0.427</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AA23" s="4">
         <v>0.583</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AB23" s="4">
         <v>100.7</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AC23" s="4">
         <v>18.9</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AD23" s="4">
         <v>111.4</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AE23" s="4">
         <v>3.3</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AF23" s="4">
         <v>46.2</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AG23" s="4">
         <v>52.5</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AH23" s="4">
         <v>35.6</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AI23" s="5">
         <v>52</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AJ23" s="4">
         <v>80.7</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AK23" s="4">
         <v>111.9</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AL23" s="4">
         <v>23.4</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AM23" s="4">
         <v>11.9</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AN23" s="4">
         <v>1.963</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AO23" s="4">
         <v>0.959</v>
       </c>
-      <c r="AP23" t="n">
+      <c r="AP23" s="4">
         <v>0.985</v>
       </c>
-      <c r="AQ23" t="n">
+      <c r="AQ23" s="4">
         <v>10.4</v>
       </c>
-      <c r="AR23" t="n">
+      <c r="AR23" s="4">
         <v>34.1</v>
       </c>
-      <c r="AS23" t="n">
+      <c r="AS23" s="4">
         <v>51.9</v>
       </c>
-      <c r="AT23" t="n">
+      <c r="AT23" s="4">
         <v>23.5</v>
       </c>
-      <c r="AU23" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="AV23" t="n">
+      <c r="AU23" s="4">
+        <v>79.1</v>
+      </c>
+      <c r="AV23" s="4">
         <v>4.2</v>
       </c>
-      <c r="AW23" t="n">
+      <c r="AW23" s="4">
         <v>7.3</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Portland</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="4">
         <v>107.4</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="4">
         <v>-7.5</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="4">
         <v>38.9</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="4">
         <v>87.5</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="4">
         <v>1.054</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="4">
         <v>1.128</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="4">
         <v>51.7</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="4">
         <v>109.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24" s="4">
         <v>34.7</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="4">
         <v>51.5</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" s="5">
         <v>76</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" s="4">
         <v>12.8</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24" s="4">
         <v>36.9</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24" s="4">
         <v>10.7</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24" s="4">
         <v>32.9</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24" s="4">
         <v>51.4</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24" s="4">
         <v>23.4</v>
       </c>
-      <c r="S24" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="T24" t="n">
+      <c r="S24" s="4">
+        <v>77.6</v>
+      </c>
+      <c r="T24" s="4">
         <v>49.3</v>
       </c>
-      <c r="U24" t="n">
+      <c r="U24" s="4">
         <v>4.5</v>
       </c>
-      <c r="V24" t="n">
+      <c r="V24" s="4">
         <v>7.9</v>
       </c>
-      <c r="W24" t="n">
+      <c r="W24" s="4">
         <v>22.8</v>
       </c>
-      <c r="X24" t="n">
+      <c r="X24" s="4">
         <v>14.2</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Y24" s="4">
         <v>1.601</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="Z24" s="4">
         <v>0.36</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AA24" s="4">
         <v>0.5</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AB24" s="4">
         <v>101.9</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AC24" s="4">
         <v>20.8</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AD24" s="4">
         <v>114.9</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AE24" s="4">
         <v>7.5</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AF24" s="4">
         <v>47.7</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AG24" s="4">
         <v>55.8</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AH24" s="4">
         <v>37.3</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AI24" s="4">
         <v>55.7</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="AK24" t="n">
+      <c r="AJ24" s="4">
+        <v>77.9</v>
+      </c>
+      <c r="AK24" s="4">
         <v>117.7</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AL24" s="4">
         <v>26.7</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AM24" s="5">
         <v>14</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AN24" s="4">
         <v>1.915</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AO24" s="4">
         <v>0.965</v>
       </c>
-      <c r="AP24" t="n">
+      <c r="AP24" s="4">
         <v>0.956</v>
       </c>
-      <c r="AQ24" t="n">
+      <c r="AQ24" s="4">
         <v>9.5</v>
       </c>
-      <c r="AR24" t="n">
+      <c r="AR24" s="4">
         <v>34.9</v>
       </c>
-      <c r="AS24" t="n">
+      <c r="AS24" s="4">
         <v>52.9</v>
       </c>
-      <c r="AT24" t="n">
+      <c r="AT24" s="4">
         <v>22.4</v>
       </c>
-      <c r="AU24" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="AV24" t="n">
+      <c r="AU24" s="4">
+        <v>76.6</v>
+      </c>
+      <c r="AV24" s="5">
         <v>5</v>
       </c>
-      <c r="AW24" t="n">
+      <c r="AW24" s="4">
         <v>7.9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Cleveland</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="4">
         <v>107.2</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="4">
         <v>2.5</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="4">
         <v>39.5</v>
       </c>
-      <c r="E25" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E25" s="4">
+        <v>84.6</v>
+      </c>
+      <c r="F25" s="4">
         <v>1.079</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="4">
         <v>1.054</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="4">
         <v>53.5</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="4">
         <v>112.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25" s="5">
         <v>35</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="4">
         <v>54.1</v>
       </c>
-      <c r="L25" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" s="4">
+        <v>76.1</v>
+      </c>
+      <c r="M25" s="4">
         <v>11.5</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25" s="4">
         <v>32.8</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25" s="4">
         <v>10.3</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25" s="4">
         <v>34.1</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25" s="4">
         <v>52.2</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25" s="4">
         <v>24.1</v>
       </c>
-      <c r="S25" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="T25" t="n">
+      <c r="S25" s="4">
+        <v>76.4</v>
+      </c>
+      <c r="T25" s="4">
         <v>50.9</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U25" s="4">
         <v>4.2</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V25" s="4">
         <v>7.2</v>
       </c>
-      <c r="W25" t="n">
+      <c r="W25" s="4">
         <v>25.2</v>
       </c>
-      <c r="X25" t="n">
+      <c r="X25" s="4">
         <v>14.6</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Y25" s="4">
         <v>1.723</v>
       </c>
-      <c r="Z25" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB25" t="n">
+      <c r="Z25" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="AB25" s="4">
         <v>99.3</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AC25" s="4">
         <v>17.2</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AD25" s="4">
         <v>104.6</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AE25" s="4">
         <v>-2.5</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AF25" s="4">
         <v>45.1</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AG25" s="4">
         <v>51.7</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AH25" s="4">
         <v>34.8</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AI25" s="4">
         <v>51.4</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="AK25" t="n">
+      <c r="AJ25" s="4">
+        <v>76.9</v>
+      </c>
+      <c r="AK25" s="4">
         <v>108.8</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AL25" s="4">
         <v>23.9</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AM25" s="4">
         <v>13.7</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AN25" s="4">
         <v>1.748</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AO25" s="4">
         <v>0.956</v>
       </c>
-      <c r="AP25" t="n">
+      <c r="AP25" s="4">
         <v>0.968</v>
       </c>
-      <c r="AQ25" t="n">
+      <c r="AQ25" s="4">
         <v>10.5</v>
       </c>
-      <c r="AR25" t="n">
+      <c r="AR25" s="4">
         <v>32.3</v>
       </c>
-      <c r="AS25" t="n">
+      <c r="AS25" s="4">
         <v>50.4</v>
       </c>
-      <c r="AT25" t="n">
+      <c r="AT25" s="4">
         <v>23.6</v>
       </c>
-      <c r="AU25" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="AV25" t="n">
+      <c r="AU25" s="4">
+        <v>75.9</v>
+      </c>
+      <c r="AV25" s="4">
         <v>4.5</v>
       </c>
-      <c r="AW25" t="n">
+      <c r="AW25" s="4">
         <v>8.6</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Dallas</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="4">
         <v>106.9</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="4">
         <v>2.8</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="4">
         <v>39.1</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="4">
         <v>85.5</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="4">
         <v>1.086</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="4">
         <v>1.058</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="4">
         <v>53.2</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="4">
         <v>112.1</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" s="4">
         <v>34.4</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="4">
         <v>54.4</v>
       </c>
-      <c r="L26" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" s="4">
+        <v>76.6</v>
+      </c>
+      <c r="M26" s="4">
         <v>12.8</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26" s="4">
         <v>37.3</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26" s="4">
         <v>9.4</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26" s="4">
         <v>33.8</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26" s="4">
         <v>50.8</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26" s="4">
         <v>21.4</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26" s="4">
         <v>77.8</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T26" s="4">
         <v>49.6</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U26" s="5">
         <v>4</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V26" s="4">
         <v>6.8</v>
       </c>
-      <c r="W26" t="n">
+      <c r="W26" s="4">
         <v>23.2</v>
       </c>
-      <c r="X26" t="n">
+      <c r="X26" s="4">
         <v>12.4</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y26" s="4">
         <v>1.863</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="Z26" s="4">
         <v>0.618</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AA26" s="4">
         <v>0.588</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AB26" s="4">
         <v>98.5</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AC26" s="4">
         <v>19.7</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AD26" s="4">
         <v>104.2</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AE26" s="4">
         <v>-2.8</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AF26" s="4">
         <v>45.6</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AG26" s="5">
         <v>52</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AH26" s="4">
         <v>33.7</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AI26" s="4">
         <v>52.9</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="AK26" t="n">
+      <c r="AJ26" s="4">
+        <v>75.9</v>
+      </c>
+      <c r="AK26" s="4">
         <v>109.7</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AL26" s="4">
         <v>23.3</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AM26" s="4">
         <v>13.2</v>
       </c>
-      <c r="AN26" t="n">
+      <c r="AN26" s="4">
         <v>1.764</v>
       </c>
-      <c r="AO26" t="n">
+      <c r="AO26" s="4">
         <v>0.969</v>
       </c>
-      <c r="AP26" t="n">
+      <c r="AP26" s="4">
         <v>0.963</v>
       </c>
-      <c r="AQ26" t="n">
+      <c r="AQ26" s="4">
         <v>9.6</v>
       </c>
-      <c r="AR26" t="n">
+      <c r="AR26" s="4">
         <v>34.5</v>
       </c>
-      <c r="AS26" t="n">
+      <c r="AS26" s="4">
         <v>51.7</v>
       </c>
-      <c r="AT26" t="n">
+      <c r="AT26" s="4">
         <v>22.2</v>
       </c>
-      <c r="AU26" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="AV26" t="n">
+      <c r="AU26" s="4">
+        <v>78.6</v>
+      </c>
+      <c r="AV26" s="4">
         <v>3.7</v>
       </c>
-      <c r="AW26" t="n">
+      <c r="AW26" s="4">
         <v>6.9</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>LA Clippers</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="4">
         <v>106.8</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="4">
         <v>-1.6</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="4">
         <v>39.6</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="4">
         <v>87.3</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="4">
         <v>1.055</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="4">
         <v>1.071</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="4">
         <v>52.4</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="4">
         <v>110.7</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27" s="4">
         <v>36.5</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27" s="5">
         <v>51</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27" s="5">
         <v>79</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27" s="4">
         <v>12.3</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27" s="4">
         <v>33.8</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27" s="4">
         <v>9.1</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27" s="4">
         <v>34.7</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27" s="4">
         <v>51.3</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27" s="4">
         <v>20.5</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27" s="4">
         <v>74.5</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T27" s="4">
         <v>48.5</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U27" s="4">
         <v>4.9</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V27" s="4">
         <v>7.4</v>
       </c>
-      <c r="W27" t="n">
+      <c r="W27" s="4">
         <v>23.6</v>
       </c>
-      <c r="X27" t="n">
+      <c r="X27" s="4">
         <v>13.8</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Y27" s="4">
         <v>1.706</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="Z27" s="4">
         <v>0.487</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AA27" s="4">
         <v>0.7</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AB27" s="4">
         <v>101.3</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AC27" s="4">
         <v>18.6</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AD27" s="4">
         <v>108.4</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AE27" s="4">
         <v>1.6</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AF27" s="4">
         <v>45.1</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AG27" s="4">
         <v>51.6</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AH27" s="4">
         <v>34.6</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AI27" s="4">
         <v>51.4</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="AK27" t="n">
+      <c r="AJ27" s="4">
+        <v>78.1</v>
+      </c>
+      <c r="AK27" s="5">
         <v>109</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AL27" s="4">
         <v>24.1</v>
       </c>
-      <c r="AM27" t="n">
+      <c r="AM27" s="4">
         <v>13.7</v>
       </c>
-      <c r="AN27" t="n">
+      <c r="AN27" s="4">
         <v>1.76</v>
       </c>
-      <c r="AO27" t="n">
+      <c r="AO27" s="4">
         <v>0.953</v>
       </c>
-      <c r="AP27" t="n">
+      <c r="AP27" s="4">
         <v>0.982</v>
       </c>
-      <c r="AQ27" t="n">
+      <c r="AQ27" s="4">
         <v>11.9</v>
       </c>
-      <c r="AR27" t="n">
+      <c r="AR27" s="4">
         <v>35.3</v>
       </c>
-      <c r="AS27" t="n">
+      <c r="AS27" s="4">
         <v>54.3</v>
       </c>
-      <c r="AT27" t="n">
+      <c r="AT27" s="4">
         <v>25.5</v>
       </c>
-      <c r="AU27" t="n">
+      <c r="AU27" s="4">
         <v>79.5</v>
       </c>
-      <c r="AV27" t="n">
+      <c r="AV27" s="4">
         <v>4.2</v>
       </c>
-      <c r="AW27" t="n">
+      <c r="AW27" s="4">
         <v>7.7</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="4">
         <v>106.3</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="4">
         <v>-0.4</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="4">
         <v>37.6</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="4">
         <v>86.3</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="4">
         <v>1.067</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="4">
         <v>1.071</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" s="4">
         <v>51.2</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" s="4">
         <v>108.8</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28" s="4">
         <v>35.6</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="4">
         <v>49.5</v>
       </c>
-      <c r="L28" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" s="4">
+        <v>74.6</v>
+      </c>
+      <c r="M28" s="4">
         <v>13.1</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28" s="4">
         <v>36.7</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28" s="4">
         <v>11.6</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28" s="4">
         <v>34.7</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28" s="4">
         <v>55.5</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28" s="4">
         <v>25.3</v>
       </c>
-      <c r="S28" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="T28" t="n">
+      <c r="S28" s="4">
+        <v>78.6</v>
+      </c>
+      <c r="T28" s="4">
         <v>51.5</v>
       </c>
-      <c r="U28" t="n">
+      <c r="U28" s="4">
         <v>4.8</v>
       </c>
-      <c r="V28" t="n">
+      <c r="V28" s="4">
         <v>6.9</v>
       </c>
-      <c r="W28" t="n">
+      <c r="W28" s="4">
         <v>21.6</v>
       </c>
-      <c r="X28" t="n">
+      <c r="X28" s="4">
         <v>13.3</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Y28" s="4">
         <v>1.62</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="Z28" s="4">
         <v>0.447</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AA28" s="4">
         <v>0.412</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AB28" s="4">
         <v>99.7</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AC28" s="4">
         <v>20.5</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AD28" s="4">
         <v>106.8</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AE28" s="4">
         <v>0.4</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AF28" s="4">
         <v>44.6</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AG28" s="5">
         <v>52</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AH28" s="4">
         <v>34.3</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AI28" s="4">
         <v>52.4</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="AK28" t="n">
+      <c r="AJ28" s="4">
+        <v>76.4</v>
+      </c>
+      <c r="AK28" s="4">
         <v>110.3</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AL28" s="5">
         <v>24</v>
       </c>
-      <c r="AM28" t="n">
+      <c r="AM28" s="4">
         <v>12.5</v>
       </c>
-      <c r="AN28" t="n">
+      <c r="AN28" s="4">
         <v>1.913</v>
       </c>
-      <c r="AO28" t="n">
+      <c r="AO28" s="4">
         <v>0.983</v>
       </c>
-      <c r="AP28" t="n">
+      <c r="AP28" s="4">
         <v>0.969</v>
       </c>
-      <c r="AQ28" t="n">
+      <c r="AQ28" s="4">
         <v>9.5</v>
       </c>
-      <c r="AR28" t="n">
+      <c r="AR28" s="4">
         <v>34.3</v>
       </c>
-      <c r="AS28" t="n">
+      <c r="AS28" s="4">
         <v>52.3</v>
       </c>
-      <c r="AT28" t="n">
+      <c r="AT28" s="4">
         <v>21.4</v>
       </c>
-      <c r="AU28" t="n">
+      <c r="AU28" s="4">
         <v>74.7</v>
       </c>
-      <c r="AV28" t="n">
+      <c r="AV28" s="4">
         <v>4.7</v>
       </c>
-      <c r="AW28" t="n">
+      <c r="AW28" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Detroit</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="4">
         <v>104.5</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="4">
         <v>-7.8</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="4">
         <v>38.1</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="4">
         <v>88.7</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="4">
         <v>1.022</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="4">
         <v>1.098</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" s="4">
         <v>49.3</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" s="4">
         <v>105.5</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29" s="4">
         <v>32.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29" s="4">
         <v>49.6</v>
       </c>
-      <c r="L29" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" s="4">
+        <v>78.1</v>
+      </c>
+      <c r="M29" s="4">
         <v>11.1</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29" s="4">
         <v>34.2</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29" s="4">
         <v>11.1</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29" s="4">
         <v>32.1</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29" s="4">
         <v>51.1</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29" s="4">
         <v>23.6</v>
       </c>
-      <c r="S29" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="T29" t="n">
+      <c r="S29" s="4">
+        <v>75.6</v>
+      </c>
+      <c r="T29" s="5">
         <v>48</v>
       </c>
-      <c r="U29" t="n">
+      <c r="U29" s="4">
         <v>4.8</v>
       </c>
-      <c r="V29" t="n">
+      <c r="V29" s="4">
         <v>7.7</v>
       </c>
-      <c r="W29" t="n">
+      <c r="W29" s="4">
         <v>23.1</v>
       </c>
-      <c r="X29" t="n">
+      <c r="X29" s="4">
         <v>14.3</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Y29" s="4">
         <v>1.617</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="Z29" s="4">
         <v>0.263</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AA29" s="4">
         <v>0.429</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AB29" s="4">
         <v>102.3</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AC29" s="4">
         <v>22.1</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AD29" s="4">
         <v>112.3</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AE29" s="4">
         <v>7.8</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AF29" s="4">
         <v>47.1</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AG29" s="4">
         <v>54.1</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AH29" s="4">
         <v>36.6</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AI29" s="4">
         <v>53.6</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AJ29" s="4">
         <v>77.5</v>
       </c>
-      <c r="AK29" t="n">
+      <c r="AK29" s="4">
         <v>114.8</v>
       </c>
-      <c r="AL29" t="n">
+      <c r="AL29" s="5">
         <v>25</v>
       </c>
-      <c r="AM29" t="n">
+      <c r="AM29" s="4">
         <v>14.7</v>
       </c>
-      <c r="AN29" t="n">
+      <c r="AN29" s="4">
         <v>1.701</v>
       </c>
-      <c r="AO29" t="n">
+      <c r="AO29" s="4">
         <v>0.968</v>
       </c>
-      <c r="AP29" t="n">
+      <c r="AP29" s="4">
         <v>0.957</v>
       </c>
-      <c r="AQ29" t="n">
+      <c r="AQ29" s="4">
         <v>10.3</v>
       </c>
-      <c r="AR29" t="n">
+      <c r="AR29" s="4">
         <v>35.8</v>
       </c>
-      <c r="AS29" t="n">
+      <c r="AS29" s="4">
         <v>55.4</v>
       </c>
-      <c r="AT29" t="n">
+      <c r="AT29" s="4">
         <v>24.4</v>
       </c>
-      <c r="AU29" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="AV29" t="n">
+      <c r="AU29" s="4">
+        <v>76.4</v>
+      </c>
+      <c r="AV29" s="4">
         <v>5.1</v>
       </c>
-      <c r="AW29" t="n">
+      <c r="AW29" s="4">
         <v>7.4</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Orlando</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="4">
         <v>104.1</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="4">
         <v>-7.7</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="4">
         <v>38.2</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="4">
         <v>88.2</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="4">
         <v>1.012</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="4">
         <v>1.088</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" s="4">
         <v>50.1</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" s="4">
         <v>106.7</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30" s="4">
         <v>32.9</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30" s="4">
         <v>50.7</v>
       </c>
-      <c r="L30" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" s="4">
+        <v>78.9</v>
+      </c>
+      <c r="M30" s="5">
         <v>12</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30" s="4">
         <v>36.4</v>
       </c>
-      <c r="O30" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="O30" s="4">
+        <v>9.2</v>
+      </c>
+      <c r="P30" s="4">
         <v>35.2</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30" s="4">
         <v>52.7</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30" s="5">
         <v>20</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S30" s="4">
         <v>77.2</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T30" s="5">
         <v>49</v>
       </c>
-      <c r="U30" t="n">
+      <c r="U30" s="4">
         <v>4.5</v>
       </c>
-      <c r="V30" t="n">
+      <c r="V30" s="4">
         <v>6.8</v>
       </c>
-      <c r="W30" t="n">
+      <c r="W30" s="4">
         <v>23.6</v>
       </c>
-      <c r="X30" t="n">
+      <c r="X30" s="4">
         <v>14.6</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Y30" s="4">
         <v>1.615</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="Z30" s="4">
         <v>0.263</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AA30" s="4">
         <v>0.294</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AB30" s="4">
         <v>102.9</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AC30" s="4">
         <v>19.8</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AD30" s="4">
         <v>111.9</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AE30" s="4">
         <v>7.7</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AF30" s="4">
         <v>45.7</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AG30" s="4">
         <v>53.1</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AH30" s="4">
         <v>36.3</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AI30" s="4">
         <v>52.1</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AJ30" s="4">
         <v>77.3</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AK30" s="4">
         <v>112.2</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AL30" s="4">
         <v>24.7</v>
       </c>
-      <c r="AM30" t="n">
+      <c r="AM30" s="4">
         <v>13.3</v>
       </c>
-      <c r="AN30" t="n">
+      <c r="AN30" s="4">
         <v>1.851</v>
       </c>
-      <c r="AO30" t="n">
+      <c r="AO30" s="4">
         <v>0.947</v>
       </c>
-      <c r="AP30" t="n">
+      <c r="AP30" s="4">
         <v>0.971</v>
       </c>
-      <c r="AQ30" t="n">
+      <c r="AQ30" s="4">
         <v>10.4</v>
       </c>
-      <c r="AR30" t="n">
+      <c r="AR30" s="4">
         <v>36.6</v>
       </c>
-      <c r="AS30" t="n">
+      <c r="AS30" s="4">
         <v>54.9</v>
       </c>
-      <c r="AT30" t="n">
+      <c r="AT30" s="4">
         <v>22.8</v>
       </c>
-      <c r="AU30" t="n">
+      <c r="AU30" s="5">
         <v>80</v>
       </c>
-      <c r="AV30" t="n">
+      <c r="AV30" s="4">
         <v>5.2</v>
       </c>
-      <c r="AW30" t="n">
+      <c r="AW30" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Okla City</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="4">
         <v>103.8</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="4">
         <v>-7.4</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="4">
         <v>38.2</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="4">
         <v>89.3</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="4">
         <v>1.015</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="4">
         <v>1.088</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" s="4">
         <v>49.6</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31" s="4">
         <v>105.1</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31" s="4">
         <v>32.1</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31" s="4">
         <v>50.6</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31" s="4">
         <v>76.5</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31" s="4">
         <v>12.1</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31" s="4">
         <v>37.6</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31" s="4">
         <v>10.3</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P31" s="4">
         <v>35.4</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31" s="4">
         <v>53.5</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R31" s="4">
         <v>21.6</v>
       </c>
-      <c r="S31" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="T31" t="n">
+      <c r="S31" s="4">
+        <v>75.9</v>
+      </c>
+      <c r="T31" s="4">
         <v>48.8</v>
       </c>
-      <c r="U31" t="n">
+      <c r="U31" s="4">
         <v>4.6</v>
       </c>
-      <c r="V31" t="n">
+      <c r="V31" s="4">
         <v>7.7</v>
       </c>
-      <c r="W31" t="n">
+      <c r="W31" s="4">
         <v>22.1</v>
       </c>
-      <c r="X31" t="n">
+      <c r="X31" s="4">
         <v>13.9</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="Y31" s="4">
         <v>1.589</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="Z31" s="4">
         <v>0.293</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AA31" s="4">
         <v>0.458</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AB31" s="4">
         <v>102.2</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AC31" s="4">
         <v>18.3</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AD31" s="4">
         <v>111.2</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AE31" s="4">
         <v>7.4</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AF31" s="4">
         <v>45.5</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AG31" s="5">
         <v>53</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AH31" s="4">
         <v>35.2</v>
       </c>
-      <c r="AI31" t="n">
+      <c r="AI31" s="4">
         <v>53.2</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AJ31" s="4">
         <v>76.7</v>
       </c>
-      <c r="AK31" t="n">
+      <c r="AK31" s="4">
         <v>111.2</v>
       </c>
-      <c r="AL31" t="n">
+      <c r="AL31" s="5">
         <v>26</v>
       </c>
-      <c r="AM31" t="n">
+      <c r="AM31" s="4">
         <v>13.4</v>
       </c>
-      <c r="AN31" t="n">
+      <c r="AN31" s="4">
         <v>1.943</v>
       </c>
-      <c r="AO31" t="n">
+      <c r="AO31" s="4">
         <v>0.965</v>
       </c>
-      <c r="AP31" t="n">
+      <c r="AP31" s="4">
         <v>0.979</v>
       </c>
-      <c r="AQ31" t="n">
+      <c r="AQ31" s="4">
         <v>11.2</v>
       </c>
-      <c r="AR31" t="n">
+      <c r="AR31" s="4">
         <v>37.4</v>
       </c>
-      <c r="AS31" t="n">
+      <c r="AS31" s="4">
         <v>56.2</v>
       </c>
-      <c r="AT31" t="n">
+      <c r="AT31" s="4">
         <v>24.1</v>
       </c>
-      <c r="AU31" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="AV31" t="n">
+      <c r="AU31" s="4">
+        <v>78.4</v>
+      </c>
+      <c r="AV31" s="4">
         <v>5.9</v>
       </c>
-      <c r="AW31" t="n">
+      <c r="AW31" s="4">
         <v>8.4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>